--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>305.0265160000001</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H2">
-        <v>915.0795480000002</v>
+        <v>0.028954</v>
       </c>
       <c r="I2">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="J2">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>265.842631</v>
+        <v>0.006768333333333334</v>
       </c>
       <c r="N2">
-        <v>797.5278929999999</v>
+        <v>0.020305</v>
       </c>
       <c r="O2">
-        <v>0.99055425962745</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="P2">
-        <v>0.99055425962745</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="Q2">
-        <v>81089.05153820361</v>
+        <v>6.532344111111111E-05</v>
       </c>
       <c r="R2">
-        <v>729801.4638438325</v>
+        <v>0.00058791097</v>
       </c>
       <c r="S2">
-        <v>0.9904404857672758</v>
+        <v>0.002974427117704252</v>
       </c>
       <c r="T2">
-        <v>0.9904404857672758</v>
+        <v>0.002974427117704252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>305.0265160000001</v>
+        <v>0.009651333333333333</v>
       </c>
       <c r="H3">
-        <v>915.0795480000002</v>
+        <v>0.028954</v>
       </c>
       <c r="I3">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="J3">
-        <v>0.9998851412135495</v>
+        <v>0.8567539576860482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>5.828347</v>
       </c>
       <c r="O3">
-        <v>0.007238986871944891</v>
+        <v>0.9965282598451746</v>
       </c>
       <c r="P3">
-        <v>0.007238986871944891</v>
+        <v>0.9965282598451747</v>
       </c>
       <c r="Q3">
-        <v>592.6001264830174</v>
+        <v>0.01875043989311111</v>
       </c>
       <c r="R3">
-        <v>5333.401138347157</v>
+        <v>0.168753959038</v>
       </c>
       <c r="S3">
-        <v>0.007238155410697649</v>
+        <v>0.853779530568344</v>
       </c>
       <c r="T3">
-        <v>0.007238155410697649</v>
+        <v>0.8537795305683441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>305.0265160000001</v>
+        <v>0.001613666666666667</v>
       </c>
       <c r="H4">
-        <v>915.0795480000002</v>
+        <v>0.004841</v>
       </c>
       <c r="I4">
-        <v>0.9998851412135495</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="J4">
-        <v>0.9998851412135495</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5922433333333333</v>
+        <v>0.006768333333333334</v>
       </c>
       <c r="N4">
-        <v>1.77673</v>
+        <v>0.020305</v>
       </c>
       <c r="O4">
-        <v>0.002206753500604999</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="P4">
-        <v>0.002206753500604999</v>
+        <v>0.00347174015482542</v>
       </c>
       <c r="Q4">
-        <v>180.6499205908934</v>
+        <v>1.092183388888889E-05</v>
       </c>
       <c r="R4">
-        <v>1625.84928531804</v>
+        <v>9.8296505E-05</v>
       </c>
       <c r="S4">
-        <v>0.002206500035575925</v>
+        <v>0.0004973130371211676</v>
       </c>
       <c r="T4">
-        <v>0.002206500035575925</v>
+        <v>0.0004973130371211676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,179 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.035039</v>
+        <v>0.001613666666666667</v>
       </c>
       <c r="H5">
-        <v>0.105117</v>
+        <v>0.004841</v>
       </c>
       <c r="I5">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="J5">
-        <v>0.0001148587864504919</v>
+        <v>0.1432460423139518</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>265.842631</v>
+        <v>1.942782333333333</v>
       </c>
       <c r="N5">
-        <v>797.5278929999999</v>
+        <v>5.828347</v>
       </c>
       <c r="O5">
-        <v>0.99055425962745</v>
+        <v>0.9965282598451746</v>
       </c>
       <c r="P5">
-        <v>0.99055425962745</v>
+        <v>0.9965282598451747</v>
       </c>
       <c r="Q5">
-        <v>9.314859947608999</v>
+        <v>0.003135003091888889</v>
       </c>
       <c r="R5">
-        <v>83.83373952848099</v>
+        <v>0.028215027827</v>
       </c>
       <c r="S5">
-        <v>0.0001137738601741744</v>
+        <v>0.1427487292768306</v>
       </c>
       <c r="T5">
-        <v>0.0001137738601741744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.035039</v>
-      </c>
-      <c r="H6">
-        <v>0.105117</v>
-      </c>
-      <c r="I6">
-        <v>0.0001148587864504919</v>
-      </c>
-      <c r="J6">
-        <v>0.0001148587864504919</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.942782333333333</v>
-      </c>
-      <c r="N6">
-        <v>5.828347</v>
-      </c>
-      <c r="O6">
-        <v>0.007238986871944891</v>
-      </c>
-      <c r="P6">
-        <v>0.007238986871944891</v>
-      </c>
-      <c r="Q6">
-        <v>0.06807315017766667</v>
-      </c>
-      <c r="R6">
-        <v>0.6126583515990001</v>
-      </c>
-      <c r="S6">
-        <v>8.314612472426328E-07</v>
-      </c>
-      <c r="T6">
-        <v>8.314612472426328E-07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.035039</v>
-      </c>
-      <c r="H7">
-        <v>0.105117</v>
-      </c>
-      <c r="I7">
-        <v>0.0001148587864504919</v>
-      </c>
-      <c r="J7">
-        <v>0.0001148587864504919</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.5922433333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.77673</v>
-      </c>
-      <c r="O7">
-        <v>0.002206753500604999</v>
-      </c>
-      <c r="P7">
-        <v>0.002206753500604999</v>
-      </c>
-      <c r="Q7">
-        <v>0.02075161415666667</v>
-      </c>
-      <c r="R7">
-        <v>0.18676452741</v>
-      </c>
-      <c r="S7">
-        <v>2.534650290748651E-07</v>
-      </c>
-      <c r="T7">
-        <v>2.534650290748651E-07</v>
+        <v>0.1427487292768306</v>
       </c>
     </row>
   </sheetData>
